--- a/D1.xlsx
+++ b/D1.xlsx
@@ -9,6 +9,9 @@
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sayfa2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Sayfa3" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Sayfa4" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="13">
   <si>
     <t xml:space="preserve">Tarih</t>
   </si>
@@ -38,9 +41,6 @@
   </si>
   <si>
     <t xml:space="preserve">Poz No 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/</t>
   </si>
   <si>
     <t xml:space="preserve">Yüklenici</t>
@@ -72,7 +72,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -95,9 +95,15 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Noto Sans"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -144,7 +150,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -157,23 +163,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -186,6 +196,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00E676"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -298,1454 +368,1457 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF00E676"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B1:G79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="2" width="11.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="5" t="n">
+      <c r="B4" s="6" t="n">
         <v>44197</v>
       </c>
-      <c r="C4" s="6" t="n">
+      <c r="C4" s="7" t="n">
         <v>88</v>
       </c>
-      <c r="D4" s="6" t="n">
+      <c r="D4" s="7" t="n">
         <v>174</v>
       </c>
-      <c r="E4" s="6" t="n">
+      <c r="E4" s="7" t="n">
         <v>288</v>
       </c>
-      <c r="F4" s="6" t="n">
+      <c r="F4" s="7" t="n">
         <v>219</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>6</v>
+      <c r="G4" s="7" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="5" t="n">
+      <c r="B5" s="6" t="n">
         <f aca="false">+B4+1</f>
         <v>44198</v>
       </c>
-      <c r="C5" s="6" t="n">
+      <c r="C5" s="7" t="n">
         <v>242</v>
       </c>
-      <c r="D5" s="6" t="n">
+      <c r="D5" s="7" t="n">
         <v>107</v>
       </c>
-      <c r="E5" s="6" t="n">
+      <c r="E5" s="7" t="n">
         <v>204</v>
       </c>
-      <c r="F5" s="6" t="n">
+      <c r="F5" s="7" t="n">
         <v>160</v>
       </c>
-      <c r="G5" s="6" t="n">
+      <c r="G5" s="7" t="n">
         <v>411</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="5" t="n">
+      <c r="B6" s="6" t="n">
         <f aca="false">+B5+1</f>
         <v>44199</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="7" t="n">
         <v>191</v>
       </c>
-      <c r="D6" s="6" t="n">
+      <c r="D6" s="7" t="n">
         <v>48</v>
       </c>
-      <c r="E6" s="6" t="n">
+      <c r="E6" s="7" t="n">
         <v>185</v>
       </c>
-      <c r="F6" s="6" t="n">
+      <c r="F6" s="7" t="n">
         <v>290</v>
       </c>
-      <c r="G6" s="6" t="n">
+      <c r="G6" s="7" t="n">
         <v>446</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="5" t="n">
+      <c r="B7" s="6" t="n">
         <f aca="false">+B6+1</f>
         <v>44200</v>
       </c>
-      <c r="C7" s="6" t="n">
+      <c r="C7" s="7" t="n">
         <v>424</v>
       </c>
-      <c r="D7" s="6" t="n">
+      <c r="D7" s="7" t="n">
         <v>91</v>
       </c>
-      <c r="E7" s="6" t="n">
+      <c r="E7" s="7" t="n">
         <v>332</v>
       </c>
-      <c r="F7" s="6" t="n">
+      <c r="F7" s="7" t="n">
         <v>160</v>
       </c>
-      <c r="G7" s="6" t="n">
+      <c r="G7" s="7" t="n">
         <v>281</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="5" t="n">
+      <c r="B8" s="6" t="n">
         <f aca="false">+B7+1</f>
         <v>44201</v>
       </c>
-      <c r="C8" s="6" t="n">
+      <c r="C8" s="7" t="n">
         <v>279</v>
       </c>
-      <c r="D8" s="6" t="n">
+      <c r="D8" s="7" t="n">
         <v>429</v>
       </c>
-      <c r="E8" s="6" t="n">
+      <c r="E8" s="7" t="n">
         <v>177</v>
       </c>
-      <c r="F8" s="6" t="n">
+      <c r="F8" s="7" t="n">
         <v>448</v>
       </c>
-      <c r="G8" s="6" t="n">
+      <c r="G8" s="7" t="n">
         <v>210</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="5" t="n">
+      <c r="B9" s="6" t="n">
         <f aca="false">+B8+1</f>
         <v>44202</v>
       </c>
-      <c r="C9" s="6" t="n">
+      <c r="C9" s="7" t="n">
         <v>476</v>
       </c>
-      <c r="D9" s="6" t="n">
+      <c r="D9" s="7" t="n">
         <v>494</v>
       </c>
-      <c r="E9" s="6" t="n">
+      <c r="E9" s="7" t="n">
         <v>158</v>
       </c>
-      <c r="F9" s="6" t="n">
+      <c r="F9" s="7" t="n">
         <v>423</v>
       </c>
-      <c r="G9" s="6" t="n">
+      <c r="G9" s="7" t="n">
         <v>371</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="5" t="n">
+      <c r="B10" s="6" t="n">
         <f aca="false">+B9+1</f>
         <v>44203</v>
       </c>
-      <c r="C10" s="6" t="n">
+      <c r="C10" s="7" t="n">
         <v>456</v>
       </c>
-      <c r="D10" s="6" t="n">
+      <c r="D10" s="7" t="n">
         <v>52</v>
       </c>
-      <c r="E10" s="6" t="n">
+      <c r="E10" s="7" t="n">
         <v>425</v>
       </c>
-      <c r="F10" s="6" t="n">
+      <c r="F10" s="7" t="n">
         <v>317</v>
       </c>
-      <c r="G10" s="6" t="n">
+      <c r="G10" s="7" t="n">
         <v>258</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="5" t="n">
+      <c r="B15" s="6" t="n">
         <f aca="false">+B10+30</f>
         <v>44233</v>
       </c>
-      <c r="C15" s="6" t="n">
+      <c r="C15" s="7" t="n">
         <v>356</v>
       </c>
-      <c r="D15" s="6" t="n">
+      <c r="D15" s="7" t="n">
         <v>19</v>
       </c>
-      <c r="E15" s="6" t="n">
+      <c r="E15" s="7" t="n">
         <v>217</v>
       </c>
-      <c r="F15" s="6" t="n">
+      <c r="F15" s="7" t="n">
         <v>214</v>
       </c>
-      <c r="G15" s="6" t="n">
+      <c r="G15" s="7" t="n">
         <v>397</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="5" t="n">
+      <c r="B16" s="6" t="n">
         <f aca="false">+B15+1</f>
         <v>44234</v>
       </c>
-      <c r="C16" s="6" t="n">
+      <c r="C16" s="7" t="n">
         <v>365</v>
       </c>
-      <c r="D16" s="6" t="n">
+      <c r="D16" s="7" t="n">
         <v>241</v>
       </c>
-      <c r="E16" s="6" t="n">
+      <c r="E16" s="7" t="n">
         <v>344</v>
       </c>
-      <c r="F16" s="6" t="n">
+      <c r="F16" s="7" t="n">
         <v>191</v>
       </c>
-      <c r="G16" s="6" t="n">
+      <c r="G16" s="7" t="n">
         <v>140</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="5" t="n">
+      <c r="B17" s="6" t="n">
         <f aca="false">+B16+1</f>
         <v>44235</v>
       </c>
-      <c r="C17" s="6" t="n">
+      <c r="C17" s="7" t="n">
         <v>175</v>
       </c>
-      <c r="D17" s="6" t="n">
+      <c r="D17" s="7" t="n">
         <v>105</v>
       </c>
-      <c r="E17" s="6" t="n">
+      <c r="E17" s="7" t="n">
         <v>177</v>
       </c>
-      <c r="F17" s="6" t="n">
+      <c r="F17" s="7" t="n">
         <v>65</v>
       </c>
-      <c r="G17" s="6" t="n">
+      <c r="G17" s="7" t="n">
         <v>363</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="5" t="n">
+      <c r="B18" s="6" t="n">
         <f aca="false">+B17+1</f>
         <v>44236</v>
       </c>
-      <c r="C18" s="6" t="n">
+      <c r="C18" s="7" t="n">
         <v>335</v>
       </c>
-      <c r="D18" s="6" t="n">
+      <c r="D18" s="7" t="n">
         <v>152</v>
       </c>
-      <c r="E18" s="6" t="n">
+      <c r="E18" s="7" t="n">
         <v>381</v>
       </c>
-      <c r="F18" s="6" t="n">
+      <c r="F18" s="7" t="n">
         <v>58</v>
       </c>
-      <c r="G18" s="6" t="n">
+      <c r="G18" s="7" t="n">
         <v>86</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="5" t="n">
+      <c r="B19" s="6" t="n">
         <f aca="false">+B18+1</f>
         <v>44237</v>
       </c>
-      <c r="C19" s="6" t="n">
+      <c r="C19" s="7" t="n">
         <v>217</v>
       </c>
-      <c r="D19" s="6" t="n">
+      <c r="D19" s="7" t="n">
         <v>173</v>
       </c>
-      <c r="E19" s="6" t="n">
+      <c r="E19" s="7" t="n">
         <v>429</v>
       </c>
-      <c r="F19" s="6" t="n">
+      <c r="F19" s="7" t="n">
         <v>275</v>
       </c>
-      <c r="G19" s="6" t="n">
+      <c r="G19" s="7" t="n">
         <v>472</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="5" t="n">
+      <c r="B20" s="6" t="n">
         <f aca="false">+B19+1</f>
         <v>44238</v>
       </c>
-      <c r="C20" s="6" t="n">
+      <c r="C20" s="7" t="n">
         <v>280</v>
       </c>
-      <c r="D20" s="6" t="n">
+      <c r="D20" s="7" t="n">
         <v>215</v>
       </c>
-      <c r="E20" s="6" t="n">
+      <c r="E20" s="7" t="n">
         <v>105</v>
       </c>
-      <c r="F20" s="6" t="n">
+      <c r="F20" s="7" t="n">
         <v>149</v>
       </c>
-      <c r="G20" s="6" t="n">
+      <c r="G20" s="7" t="n">
         <v>384</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="5" t="n">
+      <c r="B21" s="6" t="n">
         <f aca="false">+B20+1</f>
         <v>44239</v>
       </c>
-      <c r="C21" s="6" t="n">
+      <c r="C21" s="7" t="n">
         <v>387</v>
       </c>
-      <c r="D21" s="6" t="n">
+      <c r="D21" s="7" t="n">
         <v>350</v>
       </c>
-      <c r="E21" s="6" t="n">
+      <c r="E21" s="7" t="n">
         <v>186</v>
       </c>
-      <c r="F21" s="6" t="n">
+      <c r="F21" s="7" t="n">
         <v>338</v>
       </c>
-      <c r="G21" s="6" t="n">
+      <c r="G21" s="7" t="n">
         <v>123</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="D22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="E22" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="F22" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="5" t="n">
+      <c r="B26" s="6" t="n">
         <f aca="false">+B21+30</f>
         <v>44269</v>
       </c>
-      <c r="C26" s="6" t="n">
+      <c r="C26" s="7" t="n">
         <v>54</v>
       </c>
-      <c r="D26" s="6" t="n">
+      <c r="D26" s="7" t="n">
         <v>336</v>
       </c>
-      <c r="E26" s="6" t="n">
+      <c r="E26" s="7" t="n">
         <v>278</v>
       </c>
-      <c r="F26" s="6" t="n">
+      <c r="F26" s="7" t="n">
         <v>14</v>
       </c>
-      <c r="G26" s="6" t="n">
+      <c r="G26" s="7" t="n">
         <v>138</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="5" t="n">
+      <c r="B27" s="6" t="n">
         <f aca="false">+B26+1</f>
         <v>44270</v>
       </c>
-      <c r="C27" s="6" t="n">
+      <c r="C27" s="7" t="n">
         <v>81</v>
       </c>
-      <c r="D27" s="6" t="n">
+      <c r="D27" s="7" t="n">
         <v>469</v>
       </c>
-      <c r="E27" s="6" t="n">
+      <c r="E27" s="7" t="n">
         <v>184</v>
       </c>
-      <c r="F27" s="6" t="n">
+      <c r="F27" s="7" t="n">
         <v>45</v>
       </c>
-      <c r="G27" s="6" t="n">
+      <c r="G27" s="7" t="n">
         <v>304</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="5" t="n">
+      <c r="B28" s="6" t="n">
         <f aca="false">+B27+1</f>
         <v>44271</v>
       </c>
-      <c r="C28" s="6" t="n">
+      <c r="C28" s="7" t="n">
         <v>444</v>
       </c>
-      <c r="D28" s="6" t="n">
+      <c r="D28" s="7" t="n">
         <v>76</v>
       </c>
-      <c r="E28" s="6" t="n">
+      <c r="E28" s="7" t="n">
         <v>78</v>
       </c>
-      <c r="F28" s="6" t="n">
+      <c r="F28" s="7" t="n">
         <v>333</v>
       </c>
-      <c r="G28" s="6" t="n">
+      <c r="G28" s="7" t="n">
         <v>121</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="5" t="n">
+      <c r="B29" s="6" t="n">
         <f aca="false">+B28+1</f>
         <v>44272</v>
       </c>
-      <c r="C29" s="6" t="n">
+      <c r="C29" s="7" t="n">
         <v>497</v>
       </c>
-      <c r="D29" s="6" t="n">
+      <c r="D29" s="7" t="n">
         <v>204</v>
       </c>
-      <c r="E29" s="6" t="n">
+      <c r="E29" s="7" t="n">
         <v>394</v>
       </c>
-      <c r="F29" s="6" t="n">
+      <c r="F29" s="7" t="n">
         <v>271</v>
       </c>
-      <c r="G29" s="6" t="n">
+      <c r="G29" s="7" t="n">
         <v>270</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="5" t="n">
+      <c r="B30" s="6" t="n">
         <f aca="false">+B29+1</f>
         <v>44273</v>
       </c>
-      <c r="C30" s="6" t="n">
+      <c r="C30" s="7" t="n">
         <v>160</v>
       </c>
-      <c r="D30" s="6" t="n">
+      <c r="D30" s="7" t="n">
         <v>296</v>
       </c>
-      <c r="E30" s="6" t="n">
+      <c r="E30" s="7" t="n">
         <v>276</v>
       </c>
-      <c r="F30" s="6" t="n">
+      <c r="F30" s="7" t="n">
         <v>180</v>
       </c>
-      <c r="G30" s="6" t="n">
+      <c r="G30" s="7" t="n">
         <v>402</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="5" t="n">
+      <c r="B31" s="6" t="n">
         <f aca="false">+B30+1</f>
         <v>44274</v>
       </c>
-      <c r="C31" s="6" t="n">
+      <c r="C31" s="7" t="n">
         <v>490</v>
       </c>
-      <c r="D31" s="6" t="n">
+      <c r="D31" s="7" t="n">
         <v>350</v>
       </c>
-      <c r="E31" s="6" t="n">
+      <c r="E31" s="7" t="n">
         <v>493</v>
       </c>
-      <c r="F31" s="6" t="n">
+      <c r="F31" s="7" t="n">
         <v>175</v>
       </c>
-      <c r="G31" s="6" t="n">
+      <c r="G31" s="7" t="n">
         <v>373</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="5" t="n">
+      <c r="B32" s="6" t="n">
         <f aca="false">+B31+1</f>
         <v>44275</v>
       </c>
-      <c r="C32" s="6" t="n">
+      <c r="C32" s="7" t="n">
         <v>251</v>
       </c>
-      <c r="D32" s="6" t="n">
+      <c r="D32" s="7" t="n">
         <v>106</v>
       </c>
-      <c r="E32" s="6" t="n">
+      <c r="E32" s="7" t="n">
         <v>234</v>
       </c>
-      <c r="F32" s="6" t="n">
+      <c r="F32" s="7" t="n">
         <v>480</v>
       </c>
-      <c r="G32" s="6" t="n">
+      <c r="G32" s="7" t="n">
         <v>377</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="D33" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="E33" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="F33" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="5" t="n">
+      <c r="B37" s="6" t="n">
         <f aca="false">+B32+30</f>
         <v>44305</v>
       </c>
-      <c r="C37" s="6" t="n">
+      <c r="C37" s="7" t="n">
         <v>165</v>
       </c>
-      <c r="D37" s="6" t="n">
+      <c r="D37" s="7" t="n">
         <v>157</v>
       </c>
-      <c r="E37" s="6" t="n">
+      <c r="E37" s="7" t="n">
         <v>70</v>
       </c>
-      <c r="F37" s="6" t="n">
+      <c r="F37" s="7" t="n">
         <v>383</v>
       </c>
-      <c r="G37" s="6" t="n">
+      <c r="G37" s="7" t="n">
         <v>64</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="5" t="n">
+      <c r="B38" s="6" t="n">
         <f aca="false">+B37+1</f>
         <v>44306</v>
       </c>
-      <c r="C38" s="6" t="n">
+      <c r="C38" s="7" t="n">
         <v>458</v>
       </c>
-      <c r="D38" s="6" t="n">
+      <c r="D38" s="7" t="n">
         <v>292</v>
       </c>
-      <c r="E38" s="6" t="n">
+      <c r="E38" s="7" t="n">
         <v>399</v>
       </c>
-      <c r="F38" s="6" t="n">
+      <c r="F38" s="7" t="n">
         <v>205</v>
       </c>
-      <c r="G38" s="6" t="n">
+      <c r="G38" s="7" t="n">
         <v>304</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="5" t="n">
+      <c r="B39" s="6" t="n">
         <f aca="false">+B38+1</f>
         <v>44307</v>
       </c>
-      <c r="C39" s="6" t="n">
+      <c r="C39" s="7" t="n">
         <v>239</v>
       </c>
-      <c r="D39" s="6" t="n">
+      <c r="D39" s="7" t="n">
         <v>232</v>
       </c>
-      <c r="E39" s="6" t="n">
+      <c r="E39" s="7" t="n">
         <v>71</v>
       </c>
-      <c r="F39" s="6" t="n">
+      <c r="F39" s="7" t="n">
         <v>358</v>
       </c>
-      <c r="G39" s="6" t="n">
+      <c r="G39" s="7" t="n">
         <v>281</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="5" t="n">
+      <c r="B40" s="6" t="n">
         <f aca="false">+B39+1</f>
         <v>44308</v>
       </c>
-      <c r="C40" s="6" t="n">
+      <c r="C40" s="7" t="n">
         <v>445</v>
       </c>
-      <c r="D40" s="6" t="n">
+      <c r="D40" s="7" t="n">
         <v>360</v>
       </c>
-      <c r="E40" s="6" t="n">
+      <c r="E40" s="7" t="n">
         <v>120</v>
       </c>
-      <c r="F40" s="6" t="n">
+      <c r="F40" s="7" t="n">
         <v>356</v>
       </c>
-      <c r="G40" s="6" t="n">
+      <c r="G40" s="7" t="n">
         <v>487</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="5" t="n">
+      <c r="B41" s="6" t="n">
         <f aca="false">+B40+1</f>
         <v>44309</v>
       </c>
-      <c r="C41" s="6" t="n">
+      <c r="C41" s="7" t="n">
         <v>401</v>
       </c>
-      <c r="D41" s="6" t="n">
+      <c r="D41" s="7" t="n">
         <v>188</v>
       </c>
-      <c r="E41" s="6" t="n">
+      <c r="E41" s="7" t="n">
         <v>164</v>
       </c>
-      <c r="F41" s="6" t="n">
+      <c r="F41" s="7" t="n">
         <v>102</v>
       </c>
-      <c r="G41" s="6" t="n">
+      <c r="G41" s="7" t="n">
         <v>309</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="5" t="n">
+      <c r="B42" s="6" t="n">
         <f aca="false">+B41+1</f>
         <v>44310</v>
       </c>
-      <c r="C42" s="6" t="n">
+      <c r="C42" s="7" t="n">
         <v>236</v>
       </c>
-      <c r="D42" s="6" t="n">
+      <c r="D42" s="7" t="n">
         <v>265</v>
       </c>
-      <c r="E42" s="6" t="n">
+      <c r="E42" s="7" t="n">
         <v>323</v>
       </c>
-      <c r="F42" s="6" t="n">
+      <c r="F42" s="7" t="n">
         <v>334</v>
       </c>
-      <c r="G42" s="6" t="n">
+      <c r="G42" s="7" t="n">
         <v>296</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="5" t="n">
+      <c r="B43" s="6" t="n">
         <f aca="false">+B42+1</f>
         <v>44311</v>
       </c>
-      <c r="C43" s="6" t="n">
+      <c r="C43" s="7" t="n">
         <v>236</v>
       </c>
-      <c r="D43" s="6" t="n">
+      <c r="D43" s="7" t="n">
         <v>251</v>
       </c>
-      <c r="E43" s="6" t="n">
+      <c r="E43" s="7" t="n">
         <v>395</v>
       </c>
-      <c r="F43" s="6" t="n">
+      <c r="F43" s="7" t="n">
         <v>447</v>
       </c>
-      <c r="G43" s="6" t="n">
+      <c r="G43" s="7" t="n">
         <v>418</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="D44" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="E44" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="F44" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="5" t="n">
+      <c r="B48" s="6" t="n">
         <f aca="false">+B43+30</f>
         <v>44341</v>
       </c>
-      <c r="C48" s="6" t="n">
+      <c r="C48" s="7" t="n">
         <v>483</v>
       </c>
-      <c r="D48" s="6" t="n">
+      <c r="D48" s="7" t="n">
         <v>466</v>
       </c>
-      <c r="E48" s="6" t="n">
+      <c r="E48" s="7" t="n">
         <v>228</v>
       </c>
-      <c r="F48" s="6" t="n">
+      <c r="F48" s="7" t="n">
         <v>319</v>
       </c>
-      <c r="G48" s="6" t="n">
+      <c r="G48" s="7" t="n">
         <v>248</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="5" t="n">
+      <c r="B49" s="6" t="n">
         <f aca="false">+B48+1</f>
         <v>44342</v>
       </c>
-      <c r="C49" s="6" t="n">
+      <c r="C49" s="7" t="n">
         <v>113</v>
       </c>
-      <c r="D49" s="6" t="n">
+      <c r="D49" s="7" t="n">
         <v>482</v>
       </c>
-      <c r="E49" s="6" t="n">
+      <c r="E49" s="7" t="n">
         <v>117</v>
       </c>
-      <c r="F49" s="6" t="n">
+      <c r="F49" s="7" t="n">
         <v>125</v>
       </c>
-      <c r="G49" s="6" t="n">
+      <c r="G49" s="7" t="n">
         <v>239</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="5" t="n">
+      <c r="B50" s="6" t="n">
         <f aca="false">+B49+1</f>
         <v>44343</v>
       </c>
-      <c r="C50" s="6" t="n">
+      <c r="C50" s="7" t="n">
         <v>234</v>
       </c>
-      <c r="D50" s="6" t="n">
+      <c r="D50" s="7" t="n">
         <v>13</v>
       </c>
-      <c r="E50" s="6" t="n">
+      <c r="E50" s="7" t="n">
         <v>47</v>
       </c>
-      <c r="F50" s="6" t="n">
+      <c r="F50" s="7" t="n">
         <v>91</v>
       </c>
-      <c r="G50" s="6" t="n">
+      <c r="G50" s="7" t="n">
         <v>423</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="5" t="n">
+      <c r="B51" s="6" t="n">
         <f aca="false">+B50+1</f>
         <v>44344</v>
       </c>
-      <c r="C51" s="6" t="n">
+      <c r="C51" s="7" t="n">
         <v>276</v>
       </c>
-      <c r="D51" s="6" t="n">
+      <c r="D51" s="7" t="n">
         <v>205</v>
       </c>
-      <c r="E51" s="6" t="n">
+      <c r="E51" s="7" t="n">
         <v>104</v>
       </c>
-      <c r="F51" s="6" t="n">
+      <c r="F51" s="7" t="n">
         <v>29</v>
       </c>
-      <c r="G51" s="6" t="n">
+      <c r="G51" s="7" t="n">
         <v>221</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="5" t="n">
+      <c r="B52" s="6" t="n">
         <f aca="false">+B51+1</f>
         <v>44345</v>
       </c>
-      <c r="C52" s="6" t="n">
+      <c r="C52" s="7" t="n">
         <v>258</v>
       </c>
-      <c r="D52" s="6" t="n">
+      <c r="D52" s="7" t="n">
         <v>169</v>
       </c>
-      <c r="E52" s="6" t="n">
+      <c r="E52" s="7" t="n">
         <v>82</v>
       </c>
-      <c r="F52" s="6" t="n">
+      <c r="F52" s="7" t="n">
         <v>420</v>
       </c>
-      <c r="G52" s="6" t="n">
+      <c r="G52" s="7" t="n">
         <v>199</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="5" t="n">
+      <c r="B53" s="6" t="n">
         <f aca="false">+B52+1</f>
         <v>44346</v>
       </c>
-      <c r="C53" s="6" t="n">
+      <c r="C53" s="7" t="n">
         <v>406</v>
       </c>
-      <c r="D53" s="6" t="n">
+      <c r="D53" s="7" t="n">
         <v>154</v>
       </c>
-      <c r="E53" s="6" t="n">
+      <c r="E53" s="7" t="n">
         <v>138</v>
       </c>
-      <c r="F53" s="6" t="n">
+      <c r="F53" s="7" t="n">
         <v>126</v>
       </c>
-      <c r="G53" s="6" t="n">
+      <c r="G53" s="7" t="n">
         <v>326</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="5" t="n">
+      <c r="B54" s="6" t="n">
         <f aca="false">+B53+1</f>
         <v>44347</v>
       </c>
-      <c r="C54" s="6" t="n">
+      <c r="C54" s="7" t="n">
         <v>348</v>
       </c>
-      <c r="D54" s="6" t="n">
+      <c r="D54" s="7" t="n">
         <v>89</v>
       </c>
-      <c r="E54" s="6" t="n">
+      <c r="E54" s="7" t="n">
         <v>437</v>
       </c>
-      <c r="F54" s="6" t="n">
+      <c r="F54" s="7" t="n">
         <v>29</v>
       </c>
-      <c r="G54" s="6" t="n">
+      <c r="G54" s="7" t="n">
         <v>415</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="D55" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="E55" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="F55" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G55" s="7" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="7"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E58" s="3" t="s">
+      <c r="E58" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3" t="s">
+      <c r="F58" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G58" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="5" t="n">
+      <c r="B59" s="6" t="n">
         <f aca="false">+B54+30</f>
         <v>44377</v>
       </c>
-      <c r="C59" s="6" t="n">
+      <c r="C59" s="7" t="n">
         <v>486</v>
       </c>
-      <c r="D59" s="6" t="n">
+      <c r="D59" s="7" t="n">
         <v>367</v>
       </c>
-      <c r="E59" s="6" t="n">
+      <c r="E59" s="7" t="n">
         <v>366</v>
       </c>
-      <c r="F59" s="6" t="n">
+      <c r="F59" s="7" t="n">
         <v>204</v>
       </c>
-      <c r="G59" s="6" t="n">
+      <c r="G59" s="7" t="n">
         <v>487</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="5" t="n">
+      <c r="B60" s="6" t="n">
         <f aca="false">+B59+1</f>
         <v>44378</v>
       </c>
-      <c r="C60" s="6" t="n">
+      <c r="C60" s="7" t="n">
         <v>44</v>
       </c>
-      <c r="D60" s="6" t="n">
+      <c r="D60" s="7" t="n">
         <v>299</v>
       </c>
-      <c r="E60" s="6" t="n">
+      <c r="E60" s="7" t="n">
         <v>96</v>
       </c>
-      <c r="F60" s="6" t="n">
+      <c r="F60" s="7" t="n">
         <v>307</v>
       </c>
-      <c r="G60" s="6" t="n">
+      <c r="G60" s="7" t="n">
         <v>147</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="5" t="n">
+      <c r="B61" s="6" t="n">
         <f aca="false">+B60+1</f>
         <v>44379</v>
       </c>
-      <c r="C61" s="6" t="n">
+      <c r="C61" s="7" t="n">
         <v>352</v>
       </c>
-      <c r="D61" s="6" t="n">
+      <c r="D61" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="E61" s="6" t="n">
+      <c r="E61" s="7" t="n">
         <v>64</v>
       </c>
-      <c r="F61" s="6" t="n">
+      <c r="F61" s="7" t="n">
         <v>410</v>
       </c>
-      <c r="G61" s="6" t="n">
+      <c r="G61" s="7" t="n">
         <v>125</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="5" t="n">
+      <c r="B62" s="6" t="n">
         <f aca="false">+B61+1</f>
         <v>44380</v>
       </c>
-      <c r="C62" s="6" t="n">
+      <c r="C62" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="D62" s="6" t="n">
+      <c r="D62" s="7" t="n">
         <v>388</v>
       </c>
-      <c r="E62" s="6" t="n">
+      <c r="E62" s="7" t="n">
         <v>262</v>
       </c>
-      <c r="F62" s="6" t="n">
+      <c r="F62" s="7" t="n">
         <v>163</v>
       </c>
-      <c r="G62" s="6" t="n">
+      <c r="G62" s="7" t="n">
         <v>48</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="5" t="n">
+      <c r="B63" s="6" t="n">
         <f aca="false">+B62+1</f>
         <v>44381</v>
       </c>
-      <c r="C63" s="6" t="n">
+      <c r="C63" s="7" t="n">
         <v>277</v>
       </c>
-      <c r="D63" s="6" t="n">
+      <c r="D63" s="7" t="n">
         <v>414</v>
       </c>
-      <c r="E63" s="6" t="n">
+      <c r="E63" s="7" t="n">
         <v>484</v>
       </c>
-      <c r="F63" s="6" t="n">
+      <c r="F63" s="7" t="n">
         <v>218</v>
       </c>
-      <c r="G63" s="6" t="n">
+      <c r="G63" s="7" t="n">
         <v>153</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="5" t="n">
+      <c r="B64" s="6" t="n">
         <f aca="false">+B63+1</f>
         <v>44382</v>
       </c>
-      <c r="C64" s="6" t="n">
+      <c r="C64" s="7" t="n">
         <v>115</v>
       </c>
-      <c r="D64" s="6" t="n">
+      <c r="D64" s="7" t="n">
         <v>49</v>
       </c>
-      <c r="E64" s="6" t="n">
+      <c r="E64" s="7" t="n">
         <v>490</v>
       </c>
-      <c r="F64" s="6" t="n">
+      <c r="F64" s="7" t="n">
         <v>123</v>
       </c>
-      <c r="G64" s="6" t="n">
+      <c r="G64" s="7" t="n">
         <v>198</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="5" t="n">
+      <c r="B65" s="6" t="n">
         <f aca="false">+B64+1</f>
         <v>44383</v>
       </c>
-      <c r="C65" s="6" t="n">
+      <c r="C65" s="7" t="n">
         <v>250</v>
       </c>
-      <c r="D65" s="6" t="n">
+      <c r="D65" s="7" t="n">
         <v>281</v>
       </c>
-      <c r="E65" s="6" t="n">
+      <c r="E65" s="7" t="n">
         <v>31</v>
       </c>
-      <c r="F65" s="6" t="n">
+      <c r="F65" s="7" t="n">
         <v>263</v>
       </c>
-      <c r="G65" s="6" t="n">
+      <c r="G65" s="7" t="n">
         <v>336</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="D66" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="E66" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="F66" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="G66" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G66" s="7" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="E69" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="G69" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="5" t="n">
+      <c r="B70" s="6" t="n">
         <f aca="false">+B65+30</f>
         <v>44413</v>
       </c>
-      <c r="C70" s="6" t="n">
+      <c r="C70" s="7" t="n">
         <v>1000</v>
       </c>
-      <c r="D70" s="6" t="n">
+      <c r="D70" s="7" t="n">
         <v>1001</v>
       </c>
-      <c r="E70" s="6" t="n">
+      <c r="E70" s="7" t="n">
         <v>1002</v>
       </c>
-      <c r="F70" s="6" t="n">
+      <c r="F70" s="7" t="n">
         <v>1003</v>
       </c>
-      <c r="G70" s="6" t="n">
+      <c r="G70" s="7" t="n">
         <v>1004</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="5" t="n">
+      <c r="B71" s="6" t="n">
         <f aca="false">+B70+1</f>
         <v>44414</v>
       </c>
-      <c r="C71" s="6" t="n">
+      <c r="C71" s="7" t="n">
         <v>1001</v>
       </c>
-      <c r="D71" s="6" t="n">
+      <c r="D71" s="7" t="n">
         <v>1002</v>
       </c>
-      <c r="E71" s="6" t="n">
+      <c r="E71" s="7" t="n">
         <v>1003</v>
       </c>
-      <c r="F71" s="6" t="n">
+      <c r="F71" s="7" t="n">
         <v>1004</v>
       </c>
-      <c r="G71" s="6" t="n">
+      <c r="G71" s="7" t="n">
         <v>1005</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="5" t="n">
+      <c r="B72" s="6" t="n">
         <f aca="false">+B71+1</f>
         <v>44415</v>
       </c>
-      <c r="C72" s="6" t="n">
+      <c r="C72" s="7" t="n">
         <v>1002</v>
       </c>
-      <c r="D72" s="6" t="n">
+      <c r="D72" s="7" t="n">
         <v>1003</v>
       </c>
-      <c r="E72" s="6" t="n">
+      <c r="E72" s="7" t="n">
         <v>1004</v>
       </c>
-      <c r="F72" s="6" t="n">
+      <c r="F72" s="7" t="n">
         <v>1005</v>
       </c>
-      <c r="G72" s="6" t="n">
+      <c r="G72" s="7" t="n">
         <v>1006</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="5" t="n">
+      <c r="B73" s="6" t="n">
         <f aca="false">+B72+1</f>
         <v>44416</v>
       </c>
-      <c r="C73" s="6" t="n">
+      <c r="C73" s="7" t="n">
         <v>1003</v>
       </c>
-      <c r="D73" s="6" t="n">
+      <c r="D73" s="7" t="n">
         <v>1004</v>
       </c>
-      <c r="E73" s="6" t="n">
+      <c r="E73" s="7" t="n">
         <v>1005</v>
       </c>
-      <c r="F73" s="6" t="n">
+      <c r="F73" s="7" t="n">
         <v>1006</v>
       </c>
-      <c r="G73" s="6" t="n">
+      <c r="G73" s="7" t="n">
         <v>1007</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="5" t="n">
+      <c r="B74" s="6" t="n">
         <f aca="false">+B73+1</f>
         <v>44417</v>
       </c>
-      <c r="C74" s="6" t="n">
+      <c r="C74" s="7" t="n">
         <v>1004</v>
       </c>
-      <c r="D74" s="6" t="n">
+      <c r="D74" s="7" t="n">
         <v>1005</v>
       </c>
-      <c r="E74" s="6" t="n">
+      <c r="E74" s="7" t="n">
         <v>1006</v>
       </c>
-      <c r="F74" s="6" t="n">
+      <c r="F74" s="7" t="n">
         <v>1007</v>
       </c>
-      <c r="G74" s="6" t="n">
+      <c r="G74" s="7" t="n">
         <v>1008</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="5" t="n">
+      <c r="B75" s="6" t="n">
         <f aca="false">+B74+1</f>
         <v>44418</v>
       </c>
-      <c r="C75" s="6" t="n">
+      <c r="C75" s="7" t="n">
         <v>1005</v>
       </c>
-      <c r="D75" s="6" t="n">
+      <c r="D75" s="7" t="n">
         <v>1006</v>
       </c>
-      <c r="E75" s="6" t="n">
+      <c r="E75" s="7" t="n">
         <v>1007</v>
       </c>
-      <c r="F75" s="6" t="n">
+      <c r="F75" s="7" t="n">
         <v>1008</v>
       </c>
-      <c r="G75" s="6" t="n">
+      <c r="G75" s="7" t="n">
         <v>1009</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="5" t="n">
+      <c r="B76" s="6" t="n">
         <f aca="false">+B75+1</f>
         <v>44419</v>
       </c>
-      <c r="C76" s="6" t="n">
+      <c r="C76" s="7" t="n">
         <v>1006</v>
       </c>
-      <c r="D76" s="6" t="n">
+      <c r="D76" s="7" t="n">
         <v>1007</v>
       </c>
-      <c r="E76" s="6" t="n">
+      <c r="E76" s="7" t="n">
         <v>1008</v>
       </c>
-      <c r="F76" s="6" t="n">
+      <c r="F76" s="7" t="n">
         <v>1009</v>
       </c>
-      <c r="G76" s="6" t="n">
+      <c r="G76" s="7" t="n">
         <v>1010</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C77" s="7" t="s">
+      <c r="B77" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="E77" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="F77" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="G77" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="7" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="7"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="7"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -1800,4 +1873,73 @@
     <oddFooter>&amp;CSayfa &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Sayfa &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Sayfa &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Sayfa &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/D1.xlsx
+++ b/D1.xlsx
@@ -395,7 +395,7 @@
   <dimension ref="B1:G26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/D1.xlsx
+++ b/D1.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sayfa-1" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Sayfa2" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Sayfa3" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="Sayfa4" sheetId="4" state="visible" r:id="rId6"/>

--- a/D1.xlsx
+++ b/D1.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa-1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="syf1" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Sayfa2" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Sayfa3" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="Sayfa4" sheetId="4" state="visible" r:id="rId6"/>
